--- a/results/PV_land_v_roof_REopt_results.xlsx
+++ b/results/PV_land_v_roof_REopt_results.xlsx
@@ -14,6 +14,7 @@
   </bookViews>
   <sheets>
     <sheet name="Results_0" sheetId="2" r:id="rId1"/>
+    <sheet name="Results_1" r:id="rId5" sheetId="3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>input_Latitude</t>
   </si>
@@ -446,93 +447,93 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:28" ht="75" dyDescent="0.25" s="1" customFormat="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s" s="1">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s" s="1">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s" s="1">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s" s="1">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s" s="1">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s" s="1">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s" s="1">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s" s="1">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s" s="1">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s" s="1">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s" s="1">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" dyDescent="0.25">
       <c r="A2">
         <v>35.171599999999998</v>
       </c>
@@ -618,7 +619,7 @@
         <v>108539884.53</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" dyDescent="0.25">
       <c r="A3">
         <v>35.171599999999998</v>
       </c>
@@ -704,7 +705,7 @@
         <v>103661076.95999999</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" dyDescent="0.25">
       <c r="A4">
         <v>41.878100000000003</v>
       </c>
@@ -790,7 +791,7 @@
         <v>109496682.84</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" dyDescent="0.25">
       <c r="A5">
         <v>41.878100000000003</v>
       </c>
@@ -874,6 +875,449 @@
       </c>
       <c r="AB5">
         <v>106161765.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:AB5"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2">
+        <v>35.1716</v>
+      </c>
+      <c r="B2">
+        <v>-115.1391</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>0.0</v>
+      </c>
+      <c r="E2">
+        <v>0.0</v>
+      </c>
+      <c r="F2">
+        <v>0.0</v>
+      </c>
+      <c r="G2">
+        <v>0.0</v>
+      </c>
+      <c r="H2">
+        <v>0.0</v>
+      </c>
+      <c r="I2">
+        <v>0.0</v>
+      </c>
+      <c r="J2">
+        <v>0.0</v>
+      </c>
+      <c r="K2">
+        <v>0.0</v>
+      </c>
+      <c r="L2">
+        <v>1.0e7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2">
+        <v>0.0</v>
+      </c>
+      <c r="O2">
+        <v>1.0</v>
+      </c>
+      <c r="P2">
+        <v>0.0</v>
+      </c>
+      <c r="Q2">
+        <v>0.0</v>
+      </c>
+      <c r="R2">
+        <v>1.0</v>
+      </c>
+      <c r="S2">
+        <v>20.0</v>
+      </c>
+      <c r="T2">
+        <v>167.0</v>
+      </c>
+      <c r="U2">
+        <v>310529.0</v>
+      </c>
+      <c r="V2">
+        <v>295960.0</v>
+      </c>
+      <c r="W2">
+        <v>0.0</v>
+      </c>
+      <c r="X2">
+        <v>0.0</v>
+      </c>
+      <c r="Y2">
+        <v>0.0</v>
+      </c>
+      <c r="Z2">
+        <v>9.70404e6</v>
+      </c>
+      <c r="AA2">
+        <v>3.02355452e6</v>
+      </c>
+      <c r="AB2">
+        <v>1.0853988453e8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3">
+        <v>35.1716</v>
+      </c>
+      <c r="B3">
+        <v>-115.1391</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>0.0</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+      <c r="F3">
+        <v>0.0</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+      <c r="H3">
+        <v>0.0</v>
+      </c>
+      <c r="I3">
+        <v>0.0</v>
+      </c>
+      <c r="J3">
+        <v>0.0</v>
+      </c>
+      <c r="K3">
+        <v>0.0</v>
+      </c>
+      <c r="L3">
+        <v>1.0e7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3">
+        <v>43560.0</v>
+      </c>
+      <c r="O3">
+        <v>1.0</v>
+      </c>
+      <c r="P3">
+        <v>0.0</v>
+      </c>
+      <c r="Q3">
+        <v>0.0</v>
+      </c>
+      <c r="R3">
+        <v>1.0</v>
+      </c>
+      <c r="S3">
+        <v>20.0</v>
+      </c>
+      <c r="T3">
+        <v>436.0</v>
+      </c>
+      <c r="U3">
+        <v>811598.0</v>
+      </c>
+      <c r="V3">
+        <v>773520.0</v>
+      </c>
+      <c r="W3">
+        <v>0.0</v>
+      </c>
+      <c r="X3">
+        <v>0.0</v>
+      </c>
+      <c r="Y3">
+        <v>0.0</v>
+      </c>
+      <c r="Z3">
+        <v>9.22648e6</v>
+      </c>
+      <c r="AA3">
+        <v>7.90236208e6</v>
+      </c>
+      <c r="AB3">
+        <v>1.0366107696e8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4">
+        <v>41.8781</v>
+      </c>
+      <c r="B4">
+        <v>-87.6298</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>0.0</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>0.0</v>
+      </c>
+      <c r="G4">
+        <v>0.0</v>
+      </c>
+      <c r="H4">
+        <v>0.0</v>
+      </c>
+      <c r="I4">
+        <v>0.0</v>
+      </c>
+      <c r="J4">
+        <v>0.0</v>
+      </c>
+      <c r="K4">
+        <v>0.0</v>
+      </c>
+      <c r="L4">
+        <v>1.0e7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4">
+        <v>43560.0</v>
+      </c>
+      <c r="O4">
+        <v>1.0</v>
+      </c>
+      <c r="P4">
+        <v>0.0</v>
+      </c>
+      <c r="Q4">
+        <v>0.0</v>
+      </c>
+      <c r="R4">
+        <v>1.0</v>
+      </c>
+      <c r="S4">
+        <v>20.0</v>
+      </c>
+      <c r="T4">
+        <v>167.0</v>
+      </c>
+      <c r="U4">
+        <v>218079.0</v>
+      </c>
+      <c r="V4">
+        <v>207847.0</v>
+      </c>
+      <c r="W4">
+        <v>0.0</v>
+      </c>
+      <c r="X4">
+        <v>0.0</v>
+      </c>
+      <c r="Y4">
+        <v>0.0</v>
+      </c>
+      <c r="Z4">
+        <v>9.792153e6</v>
+      </c>
+      <c r="AA4">
+        <v>2.0667562e6</v>
+      </c>
+      <c r="AB4">
+        <v>1.0949668284e8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5">
+        <v>41.8781</v>
+      </c>
+      <c r="B5">
+        <v>-87.6298</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>0.0</v>
+      </c>
+      <c r="E5">
+        <v>0.0</v>
+      </c>
+      <c r="F5">
+        <v>0.0</v>
+      </c>
+      <c r="G5">
+        <v>0.0</v>
+      </c>
+      <c r="H5">
+        <v>0.0</v>
+      </c>
+      <c r="I5">
+        <v>0.0</v>
+      </c>
+      <c r="J5">
+        <v>0.0</v>
+      </c>
+      <c r="K5">
+        <v>0.0</v>
+      </c>
+      <c r="L5">
+        <v>1.0e7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5">
+        <v>43560.0</v>
+      </c>
+      <c r="O5">
+        <v>1.0</v>
+      </c>
+      <c r="P5">
+        <v>0.0</v>
+      </c>
+      <c r="Q5">
+        <v>0.0</v>
+      </c>
+      <c r="R5">
+        <v>1.0</v>
+      </c>
+      <c r="S5">
+        <v>20.0</v>
+      </c>
+      <c r="T5">
+        <v>436.0</v>
+      </c>
+      <c r="U5">
+        <v>569971.0</v>
+      </c>
+      <c r="V5">
+        <v>543230.0</v>
+      </c>
+      <c r="W5">
+        <v>0.0</v>
+      </c>
+      <c r="X5">
+        <v>0.0</v>
+      </c>
+      <c r="Y5">
+        <v>0.0</v>
+      </c>
+      <c r="Z5">
+        <v>9.45677e6</v>
+      </c>
+      <c r="AA5">
+        <v>5.40167401e6</v>
+      </c>
+      <c r="AB5">
+        <v>1.0616176503e8</v>
       </c>
     </row>
   </sheetData>

--- a/results/PV_land_v_roof_REopt_results.xlsx
+++ b/results/PV_land_v_roof_REopt_results.xlsx
@@ -8,25 +8,48 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbernal\Documents\GitHub\Public_REopt_analysis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDDC414-CF12-448D-8EAB-D01AE3117788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3383321-8771-4D1E-BD70-C2787A0BBCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results_0" sheetId="2" r:id="rId1"/>
-    <sheet name="Results_1" r:id="rId5" sheetId="3"/>
+    <sheet name="Results_1" sheetId="3" r:id="rId2"/>
+    <sheet name="Results_2" sheetId="4" r:id="rId3"/>
+    <sheet name="Results_3" sheetId="5" r:id="rId4"/>
+    <sheet name="Results_4" sheetId="6" r:id="rId5"/>
+    <sheet name="Results_6" sheetId="7" r:id="rId6"/>
+    <sheet name="Results_8" sheetId="8" r:id="rId7"/>
+    <sheet name="Results_9" sheetId="9" r:id="rId8"/>
+    <sheet name="Results_20" sheetId="10" r:id="rId9"/>
+    <sheet name="Results_21" sheetId="11" r:id="rId10"/>
+    <sheet name="Results_22" sheetId="12" r:id="rId11"/>
+    <sheet name="Results_23" sheetId="13" r:id="rId12"/>
+    <sheet name="Results_24" sheetId="14" r:id="rId13"/>
+    <sheet name="Results_25" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="80">
   <si>
     <t>input_Latitude</t>
   </si>
@@ -120,12 +143,172 @@
   <si>
     <t>roof</t>
   </si>
+  <si>
+    <t>t2_input_PV_installed_cost</t>
+  </si>
+  <si>
+    <t>t2_input_PV_kw_per_sqft</t>
+  </si>
+  <si>
+    <t>t2_input_PV_gcr</t>
+  </si>
+  <si>
+    <t>t2_input_PV_azimuth</t>
+  </si>
+  <si>
+    <t>t2_input_PV_radius</t>
+  </si>
+  <si>
+    <t>t2_input_PV_tilt</t>
+  </si>
+  <si>
+    <t>t2_input_PV_array_type</t>
+  </si>
+  <si>
+    <t>t2_input_PV_module_type</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>% diff b/w ground and roof mounted solar</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>LasVegas</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>PV location</t>
+  </si>
+  <si>
+    <t>PV installed cost per kW</t>
+  </si>
+  <si>
+    <t>PV kW per sqft</t>
+  </si>
+  <si>
+    <t>PV gcr</t>
+  </si>
+  <si>
+    <t>PV azimuth</t>
+  </si>
+  <si>
+    <t>PV radius</t>
+  </si>
+  <si>
+    <t>PV tilt</t>
+  </si>
+  <si>
+    <t>PV array type</t>
+  </si>
+  <si>
+    <t>PV module type</t>
+  </si>
+  <si>
+    <t>Electric Load</t>
+  </si>
+  <si>
+    <t>Building Type</t>
+  </si>
+  <si>
+    <t>Landspace acres</t>
+  </si>
+  <si>
+    <t>Roofspace sqft</t>
+  </si>
+  <si>
+    <t>NEM limit</t>
+  </si>
+  <si>
+    <t>Net Billing</t>
+  </si>
+  <si>
+    <t>Electricity cost per kWh</t>
+  </si>
+  <si>
+    <t>Demand cost per kWh</t>
+  </si>
+  <si>
+    <t>PV size kW</t>
+  </si>
+  <si>
+    <t>PV Yr 1 Production kWh</t>
+  </si>
+  <si>
+    <t>PV avg Annual Production kWh</t>
+  </si>
+  <si>
+    <t>PV energy LCOE</t>
+  </si>
+  <si>
+    <t>PV energy exported kWh</t>
+  </si>
+  <si>
+    <t>PV energy curtailed</t>
+  </si>
+  <si>
+    <t>Grid Supplied Electricity kWh</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>% diff b/w ground and roof mounted solar energy curtailed</t>
+  </si>
+  <si>
+    <t>% diff b/w ground and roof mounted solar production per kW</t>
+  </si>
+  <si>
+    <t>per kW</t>
+  </si>
+  <si>
+    <t>Las Vegas - g</t>
+  </si>
+  <si>
+    <t>Las Vegas - r</t>
+  </si>
+  <si>
+    <t>Chicago - g</t>
+  </si>
+  <si>
+    <t>Chicago - r</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,16 +334,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,102 +631,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50345B1-8B45-41FA-8880-1A4798593A48}">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="75" dyDescent="0.25" s="1" customFormat="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s" s="1">
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>35.171599999999998</v>
       </c>
@@ -619,7 +812,7 @@
         <v>108539884.53</v>
       </c>
     </row>
-    <row r="3" spans="1:28" dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>35.171599999999998</v>
       </c>
@@ -705,7 +898,7 @@
         <v>103661076.95999999</v>
       </c>
     </row>
-    <row r="4" spans="1:28" dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>41.878100000000003</v>
       </c>
@@ -791,7 +984,7 @@
         <v>109496682.84</v>
       </c>
     </row>
-    <row r="5" spans="1:28" dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>41.878100000000003</v>
       </c>
@@ -882,445 +1075,6900 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:AB5"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1007FB2-3AFE-4EE9-A2D3-0C94A411DF0F}">
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2">
-        <v>35.1716</v>
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
       </c>
       <c r="B2">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="C2">
         <v>-115.1391</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="D2">
-        <v>0.0</v>
-      </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>1790</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>0.01</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
+        <v>180</v>
       </c>
       <c r="I2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0</v>
+        <v>20</v>
       </c>
       <c r="K2">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1.0e7</v>
-      </c>
-      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="N2">
-        <v>0.0</v>
-      </c>
       <c r="O2">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>20.0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>167.0</v>
+        <v>20</v>
       </c>
       <c r="U2">
-        <v>310529.0</v>
-      </c>
-      <c r="V2">
-        <v>295960.0</v>
-      </c>
-      <c r="W2">
-        <v>0.0</v>
+        <v>167</v>
+      </c>
+      <c r="V2" s="2">
+        <v>310529</v>
+      </c>
+      <c r="W2" s="2">
+        <v>295960</v>
       </c>
       <c r="X2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0</v>
-      </c>
-      <c r="Z2">
-        <v>9.70404e6</v>
-      </c>
-      <c r="AA2">
-        <v>3.02355452e6</v>
-      </c>
-      <c r="AB2">
-        <v>1.0853988453e8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3">
-        <v>35.1716</v>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>5237.7730000000001</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>709278</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>2966678.26</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>8189665.6399999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
       </c>
       <c r="B3">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="C3">
         <v>-115.1391</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="D3">
-        <v>0.0</v>
-      </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>1790</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>0.01</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="H3">
-        <v>0.0</v>
+        <v>180</v>
       </c>
       <c r="I3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1.0e7</v>
-      </c>
-      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="N3">
-        <v>43560.0</v>
-      </c>
       <c r="O3">
-        <v>1.0</v>
+        <v>43560</v>
       </c>
       <c r="P3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>20.0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>436.0</v>
+        <v>20</v>
       </c>
       <c r="U3">
-        <v>811598.0</v>
-      </c>
-      <c r="V3">
-        <v>773520.0</v>
-      </c>
-      <c r="W3">
-        <v>0.0</v>
+        <v>436</v>
+      </c>
+      <c r="V3" s="2">
+        <v>811598</v>
+      </c>
+      <c r="W3" s="2">
+        <v>773520</v>
       </c>
       <c r="X3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0</v>
-      </c>
-      <c r="Z3">
-        <v>9.22648e6</v>
-      </c>
-      <c r="AA3">
-        <v>7.90236208e6</v>
-      </c>
-      <c r="AB3">
-        <v>1.0366107696e8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4">
-        <v>41.8781</v>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>377033.86699999997</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>603514</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>3808211.15</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>7348132.7599999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
       </c>
       <c r="B4">
-        <v>-87.6298</v>
-      </c>
-      <c r="C4" t="s">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="C4">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="D4">
-        <v>0.0</v>
-      </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>1790</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0.01</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="H4">
-        <v>0.0</v>
+        <v>180</v>
       </c>
       <c r="I4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1.0e7</v>
-      </c>
-      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N4" t="s">
         <v>29</v>
       </c>
-      <c r="N4">
-        <v>43560.0</v>
-      </c>
       <c r="O4">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>20.0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>167.0</v>
+        <v>20</v>
       </c>
       <c r="U4">
-        <v>218079.0</v>
-      </c>
-      <c r="V4">
-        <v>207847.0</v>
-      </c>
-      <c r="W4">
-        <v>0.0</v>
+        <v>167</v>
+      </c>
+      <c r="V4" s="2">
+        <v>218079</v>
+      </c>
+      <c r="W4" s="2">
+        <v>207847</v>
       </c>
       <c r="X4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0</v>
-      </c>
-      <c r="Z4">
-        <v>9.792153e6</v>
-      </c>
-      <c r="AA4">
-        <v>2.0667562e6</v>
-      </c>
-      <c r="AB4">
-        <v>1.0949668284e8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
-      <c r="A5">
-        <v>41.8781</v>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1744.3409999999999</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>793897</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>2047814.64</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>9108529.2699999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
       </c>
       <c r="B5">
-        <v>-87.6298</v>
-      </c>
-      <c r="C5" t="s">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="C5">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="D5">
-        <v>0.0</v>
-      </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>1790</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0.01</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="H5">
-        <v>0.0</v>
+        <v>180</v>
       </c>
       <c r="I5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1.0e7</v>
-      </c>
-      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N5" t="s">
         <v>29</v>
       </c>
-      <c r="N5">
-        <v>43560.0</v>
-      </c>
       <c r="O5">
-        <v>1.0</v>
+        <v>43560</v>
       </c>
       <c r="P5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>20.0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>436.0</v>
+        <v>20</v>
       </c>
       <c r="U5">
-        <v>569971.0</v>
-      </c>
-      <c r="V5">
-        <v>543230.0</v>
-      </c>
-      <c r="W5">
-        <v>0.0</v>
+        <v>436</v>
+      </c>
+      <c r="V5" s="2">
+        <v>569971</v>
+      </c>
+      <c r="W5" s="2">
+        <v>543230</v>
       </c>
       <c r="X5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0</v>
-      </c>
-      <c r="Z5">
-        <v>9.45677e6</v>
-      </c>
-      <c r="AA5">
-        <v>5.40167401e6</v>
-      </c>
-      <c r="AB5">
-        <v>1.0616176503e8</v>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>217683.63399999996</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>674454</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>3037881.95</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>8118461.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="4">
+        <f>V2/U2</f>
+        <v>1859.4550898203593</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>Z2/Z3*100</f>
+        <v>1.3892049119290393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="4">
+        <f>V4/V5*100</f>
+        <v>38.261420317875825</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA9" s="4">
+        <f>Z4/Z5*100</f>
+        <v>0.80131931277847013</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA19BAA-1D28-4E60-AFB5-A0EFAC7C59C5}">
+  <dimension ref="A1:AC16"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7:AA16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="C2">
+        <v>-115.1391</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>1790</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>0.4</v>
+      </c>
+      <c r="H2">
+        <v>180</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1000000</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.1</v>
+      </c>
+      <c r="T2">
+        <v>20</v>
+      </c>
+      <c r="U2">
+        <v>167</v>
+      </c>
+      <c r="V2">
+        <v>311808</v>
+      </c>
+      <c r="W2">
+        <v>297179</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>5899.0380000000005</v>
+      </c>
+      <c r="AA2">
+        <v>708720</v>
+      </c>
+      <c r="AB2">
+        <v>126072.06</v>
+      </c>
+      <c r="AC2">
+        <v>1257314.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="C3">
+        <v>-115.1391</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>1790</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3">
+        <v>0.4</v>
+      </c>
+      <c r="H3">
+        <v>180</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1000000</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3">
+        <v>43560</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.1</v>
+      </c>
+      <c r="T3">
+        <v>20</v>
+      </c>
+      <c r="U3">
+        <v>176</v>
+      </c>
+      <c r="V3">
+        <v>327933</v>
+      </c>
+      <c r="W3">
+        <v>312547</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>10950.691000000001</v>
+      </c>
+      <c r="AA3">
+        <v>698404</v>
+      </c>
+      <c r="AB3">
+        <v>126613.55</v>
+      </c>
+      <c r="AC3">
+        <v>1256773.0900000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="C4">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>1790</v>
+      </c>
+      <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
+        <v>0.4</v>
+      </c>
+      <c r="H4">
+        <v>180</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1000000</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.1</v>
+      </c>
+      <c r="T4">
+        <v>20</v>
+      </c>
+      <c r="U4">
+        <v>166</v>
+      </c>
+      <c r="V4">
+        <v>217696</v>
+      </c>
+      <c r="W4">
+        <v>207482</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1931.9870000000001</v>
+      </c>
+      <c r="AA4">
+        <v>794450</v>
+      </c>
+      <c r="AB4">
+        <v>33296.61</v>
+      </c>
+      <c r="AC4">
+        <v>1350090.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="C5">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1790</v>
+      </c>
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="G5">
+        <v>0.4</v>
+      </c>
+      <c r="H5">
+        <v>180</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1000000</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5">
+        <v>43560</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.1</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="U5">
+        <v>168</v>
+      </c>
+      <c r="V5">
+        <v>219768</v>
+      </c>
+      <c r="W5">
+        <v>209457</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1989.3530000000001</v>
+      </c>
+      <c r="AA5">
+        <v>792532</v>
+      </c>
+      <c r="AB5">
+        <v>33588.800000000003</v>
+      </c>
+      <c r="AC5">
+        <v>1349797.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="4">
+        <f>(1-V2/V3)*100</f>
+        <v>4.9171629570674451</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="4">
+        <f>(1-V4/V5)*100</f>
+        <v>0.94281242037057567</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V13" t="s">
+        <v>76</v>
+      </c>
+      <c r="W13">
+        <f>V2/U2</f>
+        <v>1867.1137724550899</v>
+      </c>
+      <c r="X13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V14" t="s">
+        <v>77</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:W16" si="0">V3/U3</f>
+        <v>1863.2556818181818</v>
+      </c>
+      <c r="X14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V15" t="s">
+        <v>78</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>1311.4216867469879</v>
+      </c>
+      <c r="X15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>79</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>1308.1428571428571</v>
+      </c>
+      <c r="X16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="V11:X12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CAA1FE-1BC4-4F33-82F2-047D2F2D76F9}">
+  <dimension ref="A1:AC16"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="C2">
+        <v>-115.1391</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>1790</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>0.4</v>
+      </c>
+      <c r="H2">
+        <v>180</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1000000</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.1</v>
+      </c>
+      <c r="T2">
+        <v>20</v>
+      </c>
+      <c r="U2">
+        <v>167</v>
+      </c>
+      <c r="V2">
+        <v>311808</v>
+      </c>
+      <c r="W2">
+        <v>297179</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>5899.0380000000005</v>
+      </c>
+      <c r="AA2">
+        <v>708720</v>
+      </c>
+      <c r="AB2">
+        <v>126072.06</v>
+      </c>
+      <c r="AC2">
+        <v>1257314.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="C3">
+        <v>-115.1391</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>1790</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3">
+        <v>0.4</v>
+      </c>
+      <c r="H3">
+        <v>180</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1000000</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3">
+        <v>43560</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.1</v>
+      </c>
+      <c r="T3">
+        <v>20</v>
+      </c>
+      <c r="U3">
+        <v>176</v>
+      </c>
+      <c r="V3">
+        <v>327933</v>
+      </c>
+      <c r="W3">
+        <v>312547</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>10950.691000000001</v>
+      </c>
+      <c r="AA3">
+        <v>698404</v>
+      </c>
+      <c r="AB3">
+        <v>126613.55</v>
+      </c>
+      <c r="AC3">
+        <v>1256773.0900000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="C4">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>1790</v>
+      </c>
+      <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
+        <v>0.4</v>
+      </c>
+      <c r="H4">
+        <v>180</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1000000</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.1</v>
+      </c>
+      <c r="T4">
+        <v>20</v>
+      </c>
+      <c r="U4">
+        <v>166</v>
+      </c>
+      <c r="V4">
+        <v>217696</v>
+      </c>
+      <c r="W4">
+        <v>207482</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>1931.9870000000001</v>
+      </c>
+      <c r="AA4">
+        <v>794450</v>
+      </c>
+      <c r="AB4">
+        <v>33296.61</v>
+      </c>
+      <c r="AC4">
+        <v>1350090.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="C5">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1790</v>
+      </c>
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="G5">
+        <v>0.4</v>
+      </c>
+      <c r="H5">
+        <v>180</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1000000</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5">
+        <v>43560</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.1</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="U5">
+        <v>168</v>
+      </c>
+      <c r="V5">
+        <v>219768</v>
+      </c>
+      <c r="W5">
+        <v>209457</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>1989.3530000000001</v>
+      </c>
+      <c r="AA5">
+        <v>792532</v>
+      </c>
+      <c r="AB5">
+        <v>33588.800000000003</v>
+      </c>
+      <c r="AC5">
+        <v>1349797.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="4">
+        <f>(1-V2/V3)*100</f>
+        <v>4.9171629570674451</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="4">
+        <f>(1-V4/V5)*100</f>
+        <v>0.94281242037057567</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V13" t="s">
+        <v>76</v>
+      </c>
+      <c r="W13">
+        <f>V2/U2</f>
+        <v>1867.1137724550899</v>
+      </c>
+      <c r="X13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V14" t="s">
+        <v>77</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:W16" si="0">V3/U3</f>
+        <v>1863.2556818181818</v>
+      </c>
+      <c r="X14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V15" t="s">
+        <v>78</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>1311.4216867469879</v>
+      </c>
+      <c r="X15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>79</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>1308.1428571428571</v>
+      </c>
+      <c r="X16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="V11:X12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70ED3A39-E997-44BD-8C5F-FA2DE243B244}">
+  <dimension ref="A1:AC16"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7:X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>36.1</v>
+      </c>
+      <c r="C2">
+        <v>-115.1391</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>1790</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>0.4</v>
+      </c>
+      <c r="H2">
+        <v>180</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1000000</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>20</v>
+      </c>
+      <c r="U2">
+        <v>167</v>
+      </c>
+      <c r="V2">
+        <v>291890</v>
+      </c>
+      <c r="W2">
+        <v>278195</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>2226.1639999999998</v>
+      </c>
+      <c r="AA2">
+        <v>724031</v>
+      </c>
+      <c r="AB2">
+        <v>2806479.88</v>
+      </c>
+      <c r="AC2">
+        <v>8349864.0199999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>36.1</v>
+      </c>
+      <c r="C3">
+        <v>-115.1391</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>1790</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3">
+        <v>0.4</v>
+      </c>
+      <c r="H3">
+        <v>180</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1000000</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3">
+        <v>43560</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>20</v>
+      </c>
+      <c r="U3">
+        <v>436</v>
+      </c>
+      <c r="V3">
+        <v>762883</v>
+      </c>
+      <c r="W3">
+        <v>727091</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>336727.56400000001</v>
+      </c>
+      <c r="AA3">
+        <v>609637</v>
+      </c>
+      <c r="AB3">
+        <v>3741724.28</v>
+      </c>
+      <c r="AC3">
+        <v>7414619.6299999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="C4">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>1790</v>
+      </c>
+      <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
+        <v>0.4</v>
+      </c>
+      <c r="H4">
+        <v>180</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1000000</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>20</v>
+      </c>
+      <c r="U4">
+        <v>167</v>
+      </c>
+      <c r="V4">
+        <v>218079</v>
+      </c>
+      <c r="W4">
+        <v>207847</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1744.3409999999999</v>
+      </c>
+      <c r="AA4">
+        <v>793897</v>
+      </c>
+      <c r="AB4">
+        <v>2047814.64</v>
+      </c>
+      <c r="AC4">
+        <v>9108529.2699999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="C5">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1790</v>
+      </c>
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="G5">
+        <v>0.4</v>
+      </c>
+      <c r="H5">
+        <v>180</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1000000</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5">
+        <v>43560</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="U5">
+        <v>436</v>
+      </c>
+      <c r="V5">
+        <v>569971</v>
+      </c>
+      <c r="W5">
+        <v>543230</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>217683.63399999996</v>
+      </c>
+      <c r="AA5">
+        <v>674454</v>
+      </c>
+      <c r="AB5">
+        <v>3037881.95</v>
+      </c>
+      <c r="AC5">
+        <v>8118461.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="4">
+        <f>(1-V2/V3)*100</f>
+        <v>61.738562794032639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="4">
+        <f>(1-V4/V5)*100</f>
+        <v>61.738579682124175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V13" t="s">
+        <v>76</v>
+      </c>
+      <c r="W13">
+        <f>V2/U2</f>
+        <v>1747.8443113772455</v>
+      </c>
+      <c r="X13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V14" t="s">
+        <v>77</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:W16" si="0">V3/U3</f>
+        <v>1749.7316513761468</v>
+      </c>
+      <c r="X14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V15" t="s">
+        <v>78</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>1305.8622754491018</v>
+      </c>
+      <c r="X15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>79</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>1307.2729357798164</v>
+      </c>
+      <c r="X16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="V11:X12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:AC16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>36.1</v>
+      </c>
+      <c r="C2">
+        <v>-115.1391</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>1790</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>0.4</v>
+      </c>
+      <c r="H2">
+        <v>180</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1000000</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>20</v>
+      </c>
+      <c r="U2">
+        <v>167</v>
+      </c>
+      <c r="V2">
+        <v>293424</v>
+      </c>
+      <c r="W2">
+        <v>279657</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>2673.346</v>
+      </c>
+      <c r="AA2">
+        <v>723016</v>
+      </c>
+      <c r="AB2">
+        <v>2817501.54</v>
+      </c>
+      <c r="AC2">
+        <v>8338842.3600000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>36.1</v>
+      </c>
+      <c r="C3">
+        <v>-115.1391</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>1790</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3">
+        <v>0.4</v>
+      </c>
+      <c r="H3">
+        <v>180</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1000000</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3">
+        <v>43560</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>20</v>
+      </c>
+      <c r="U3">
+        <v>436</v>
+      </c>
+      <c r="V3">
+        <v>762883</v>
+      </c>
+      <c r="W3">
+        <v>727091</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>336727.56400000001</v>
+      </c>
+      <c r="AA3">
+        <v>609637</v>
+      </c>
+      <c r="AB3">
+        <v>3741724.28</v>
+      </c>
+      <c r="AC3">
+        <v>7414619.6299999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="C4">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>1790</v>
+      </c>
+      <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
+        <v>0.4</v>
+      </c>
+      <c r="H4">
+        <v>180</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1000000</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>20</v>
+      </c>
+      <c r="U4">
+        <v>167</v>
+      </c>
+      <c r="V4">
+        <v>218059</v>
+      </c>
+      <c r="W4">
+        <v>207828</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>1986.8240000000001</v>
+      </c>
+      <c r="AA4">
+        <v>794159</v>
+      </c>
+      <c r="AB4">
+        <v>2044975.44</v>
+      </c>
+      <c r="AC4">
+        <v>9111368.4700000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="C5">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1790</v>
+      </c>
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="G5">
+        <v>0.4</v>
+      </c>
+      <c r="H5">
+        <v>180</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1000000</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5">
+        <v>43560</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="U5">
+        <v>436</v>
+      </c>
+      <c r="V5">
+        <v>569971</v>
+      </c>
+      <c r="W5">
+        <v>543230</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>217683.63399999996</v>
+      </c>
+      <c r="AA5">
+        <v>674454</v>
+      </c>
+      <c r="AB5">
+        <v>3037881.95</v>
+      </c>
+      <c r="AC5">
+        <v>8118461.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="4">
+        <f>(1-V2/V3)*100</f>
+        <v>61.537483467320676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="4">
+        <f>(1-V4/V5)*100</f>
+        <v>61.742088632579552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V13" t="s">
+        <v>76</v>
+      </c>
+      <c r="W13">
+        <f>V2/U2</f>
+        <v>1757.0299401197606</v>
+      </c>
+      <c r="X13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f>U2/F2</f>
+        <v>16700</v>
+      </c>
+      <c r="V14" t="s">
+        <v>77</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:W16" si="0">V3/U3</f>
+        <v>1749.7316513761468</v>
+      </c>
+      <c r="X14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f>U3/F3</f>
+        <v>43600</v>
+      </c>
+      <c r="V15" t="s">
+        <v>78</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>1305.7425149700598</v>
+      </c>
+      <c r="X15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>79</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>1307.2729357798164</v>
+      </c>
+      <c r="X16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="V11:X12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98AEA91-88B8-41AC-A4FB-B98FC3943AA5}">
+  <dimension ref="A1:AB5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="B2">
+        <v>-115.1391</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>10000000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>20</v>
+      </c>
+      <c r="T2">
+        <v>167</v>
+      </c>
+      <c r="U2">
+        <v>310529</v>
+      </c>
+      <c r="V2">
+        <v>295960</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>9704040</v>
+      </c>
+      <c r="AA2">
+        <v>3023554.52</v>
+      </c>
+      <c r="AB2">
+        <v>108539884.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="B3">
+        <v>-115.1391</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>10000000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3">
+        <v>43560</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>20</v>
+      </c>
+      <c r="T3">
+        <v>436</v>
+      </c>
+      <c r="U3">
+        <v>811598</v>
+      </c>
+      <c r="V3">
+        <v>773520</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>9226480</v>
+      </c>
+      <c r="AA3">
+        <v>7902362.0800000001</v>
+      </c>
+      <c r="AB3">
+        <v>103661076.95999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="B4">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>10000000</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4">
+        <v>43560</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>20</v>
+      </c>
+      <c r="T4">
+        <v>167</v>
+      </c>
+      <c r="U4">
+        <v>218079</v>
+      </c>
+      <c r="V4">
+        <v>207847</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>9792153</v>
+      </c>
+      <c r="AA4">
+        <v>2066756.2</v>
+      </c>
+      <c r="AB4">
+        <v>109496682.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="B5">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>10000000</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5">
+        <v>43560</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>20</v>
+      </c>
+      <c r="T5">
+        <v>436</v>
+      </c>
+      <c r="U5">
+        <v>569971</v>
+      </c>
+      <c r="V5">
+        <v>543230</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>9456770</v>
+      </c>
+      <c r="AA5">
+        <v>5401674.0099999998</v>
+      </c>
+      <c r="AB5">
+        <v>106161765.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32605138-A537-4147-AF8E-E74A39932383}">
+  <dimension ref="A1:AB5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="B2">
+        <v>-115.1391</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>10000000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>20</v>
+      </c>
+      <c r="T2">
+        <v>167</v>
+      </c>
+      <c r="U2">
+        <v>310529</v>
+      </c>
+      <c r="V2">
+        <v>295960</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>9704040</v>
+      </c>
+      <c r="AA2">
+        <v>3023554.52</v>
+      </c>
+      <c r="AB2">
+        <v>108539884.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="B3">
+        <v>-115.1391</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>10000000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3">
+        <v>43560</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>20</v>
+      </c>
+      <c r="T3">
+        <v>436</v>
+      </c>
+      <c r="U3">
+        <v>811598</v>
+      </c>
+      <c r="V3">
+        <v>773520</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>9226480</v>
+      </c>
+      <c r="AA3">
+        <v>7902362.0800000001</v>
+      </c>
+      <c r="AB3">
+        <v>103661076.95999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="B4">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>10000000</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4">
+        <v>43560</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>20</v>
+      </c>
+      <c r="T4">
+        <v>167</v>
+      </c>
+      <c r="U4">
+        <v>218079</v>
+      </c>
+      <c r="V4">
+        <v>207847</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>9792153</v>
+      </c>
+      <c r="AA4">
+        <v>2066756.2</v>
+      </c>
+      <c r="AB4">
+        <v>109496682.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="B5">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>10000000</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5">
+        <v>43560</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>20</v>
+      </c>
+      <c r="T5">
+        <v>436</v>
+      </c>
+      <c r="U5">
+        <v>569971</v>
+      </c>
+      <c r="V5">
+        <v>543230</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>9456770</v>
+      </c>
+      <c r="AA5">
+        <v>5401674.0099999998</v>
+      </c>
+      <c r="AB5">
+        <v>106161765.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321B92C6-F6C3-45CF-BF89-DB07623A0E13}">
+  <dimension ref="A1:AB5"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="B2">
+        <v>-115.1391</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>10000000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>20</v>
+      </c>
+      <c r="T2">
+        <v>167</v>
+      </c>
+      <c r="U2">
+        <v>310529</v>
+      </c>
+      <c r="V2">
+        <v>295960</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>9704040</v>
+      </c>
+      <c r="AA2">
+        <v>3023554.52</v>
+      </c>
+      <c r="AB2">
+        <v>108539884.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="B3">
+        <v>-115.1391</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>10000000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3">
+        <v>43560</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>20</v>
+      </c>
+      <c r="T3">
+        <v>436</v>
+      </c>
+      <c r="U3">
+        <v>811598</v>
+      </c>
+      <c r="V3">
+        <v>773520</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>9226480</v>
+      </c>
+      <c r="AA3">
+        <v>7902362.0800000001</v>
+      </c>
+      <c r="AB3">
+        <v>103661076.95999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="B4">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>10000000</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4">
+        <v>43560</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>20</v>
+      </c>
+      <c r="T4">
+        <v>167</v>
+      </c>
+      <c r="U4">
+        <v>218079</v>
+      </c>
+      <c r="V4">
+        <v>207847</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>9792153</v>
+      </c>
+      <c r="AA4">
+        <v>2066756.2</v>
+      </c>
+      <c r="AB4">
+        <v>109496682.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="B5">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>10000000</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5">
+        <v>43560</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>20</v>
+      </c>
+      <c r="T5">
+        <v>436</v>
+      </c>
+      <c r="U5">
+        <v>569971</v>
+      </c>
+      <c r="V5">
+        <v>543230</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>9456770</v>
+      </c>
+      <c r="AA5">
+        <v>5401674.0099999998</v>
+      </c>
+      <c r="AB5">
+        <v>106161765.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5600B7-15B8-4305-967F-4357B81FFE0D}">
+  <dimension ref="A1:AB5"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="B2">
+        <v>-115.1391</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>10000000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>20</v>
+      </c>
+      <c r="T2">
+        <v>167</v>
+      </c>
+      <c r="U2" s="2">
+        <v>310529</v>
+      </c>
+      <c r="V2">
+        <v>295960</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>9704040</v>
+      </c>
+      <c r="AA2">
+        <v>3023554.52</v>
+      </c>
+      <c r="AB2">
+        <v>108539884.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="B3">
+        <v>-115.1391</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>10000000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3">
+        <v>43560</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>20</v>
+      </c>
+      <c r="T3">
+        <v>436</v>
+      </c>
+      <c r="U3" s="2">
+        <v>811598</v>
+      </c>
+      <c r="V3">
+        <v>773520</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>9226480</v>
+      </c>
+      <c r="AA3">
+        <v>7902362.0800000001</v>
+      </c>
+      <c r="AB3">
+        <v>103661076.95999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="B4">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>10000000</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>20</v>
+      </c>
+      <c r="T4">
+        <v>167</v>
+      </c>
+      <c r="U4" s="2">
+        <v>218079</v>
+      </c>
+      <c r="V4">
+        <v>207847</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>9792153</v>
+      </c>
+      <c r="AA4">
+        <v>2066756.2</v>
+      </c>
+      <c r="AB4">
+        <v>109496682.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="B5">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>10000000</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5">
+        <v>43560</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>20</v>
+      </c>
+      <c r="T5">
+        <v>436</v>
+      </c>
+      <c r="U5" s="2">
+        <v>569971</v>
+      </c>
+      <c r="V5">
+        <v>543230</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>9456770</v>
+      </c>
+      <c r="AA5">
+        <v>5401674.0099999998</v>
+      </c>
+      <c r="AB5">
+        <v>106161765.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C61C1DF-593D-490B-9210-E9DD8E4312EE}">
+  <dimension ref="A1:AK9"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7:AI9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="C2">
+        <v>-115.1391</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>20</v>
+      </c>
+      <c r="AC2">
+        <v>167</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>310529</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>295960</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>5237.7730000000001</v>
+      </c>
+      <c r="AI2">
+        <v>709278</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>2966678.26</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>8189665.6399999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="C3">
+        <v>-115.1391</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3">
+        <v>43560</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>20</v>
+      </c>
+      <c r="AC3">
+        <v>436</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>811598</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>773520</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>377033.86699999997</v>
+      </c>
+      <c r="AI3">
+        <v>603514</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>3808211.15</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>7348132.7599999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="C4">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>20</v>
+      </c>
+      <c r="AC4">
+        <v>167</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>218079</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>207847</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>1744.3409999999999</v>
+      </c>
+      <c r="AI4">
+        <v>793897</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>2047814.64</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>9108529.2699999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="C5">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5">
+        <v>43560</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>20</v>
+      </c>
+      <c r="AC5">
+        <v>436</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>569971</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>543230</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>217683.63399999996</v>
+      </c>
+      <c r="AI5">
+        <v>674454</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>3037881.95</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>8118461.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AD7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AD8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>AD2/AD3*100</f>
+        <v>38.261429919738589</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>AH2/AH3*100</f>
+        <v>1.3892049119290393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AD9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE9" s="4">
+        <f>AD4/AD5*100</f>
+        <v>38.261420317875825</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI9" s="4">
+        <f>AH4/AH5*100</f>
+        <v>0.80131931277847013</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3458DCE-5628-4691-BE31-2736130171E6}">
+  <dimension ref="A1:AJ5"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="35" max="36" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="B2">
+        <v>-115.1391</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1000000</v>
+      </c>
+      <c r="U2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>20</v>
+      </c>
+      <c r="AB2">
+        <v>167</v>
+      </c>
+      <c r="AC2">
+        <v>310529</v>
+      </c>
+      <c r="AD2">
+        <v>295960</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>5237.7730000000001</v>
+      </c>
+      <c r="AH2">
+        <v>709278</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>2966678.26</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>8189665.6399999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="B3">
+        <v>-115.1391</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>1000000</v>
+      </c>
+      <c r="U3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3">
+        <v>43560</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>20</v>
+      </c>
+      <c r="AB3">
+        <v>436</v>
+      </c>
+      <c r="AC3">
+        <v>811598</v>
+      </c>
+      <c r="AD3">
+        <v>773520</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>377033.86699999997</v>
+      </c>
+      <c r="AH3">
+        <v>603514</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>3808211.15</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>7348132.7599999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="B4">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1000000</v>
+      </c>
+      <c r="U4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>20</v>
+      </c>
+      <c r="AB4">
+        <v>167</v>
+      </c>
+      <c r="AC4">
+        <v>218079</v>
+      </c>
+      <c r="AD4">
+        <v>207847</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>1744.3409999999999</v>
+      </c>
+      <c r="AH4">
+        <v>793897</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>2047814.64</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>9108529.2699999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="B5">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1000000</v>
+      </c>
+      <c r="U5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5">
+        <v>43560</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>20</v>
+      </c>
+      <c r="AB5">
+        <v>436</v>
+      </c>
+      <c r="AC5">
+        <v>569971</v>
+      </c>
+      <c r="AD5">
+        <v>543230</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>217683.63399999996</v>
+      </c>
+      <c r="AH5">
+        <v>674454</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>3037881.95</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>8118461.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85FF99F-8268-4306-AC29-83260FB3232A}">
+  <dimension ref="A1:AK5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="C2">
+        <v>-115.1391</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1000000</v>
+      </c>
+      <c r="V2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>20</v>
+      </c>
+      <c r="AC2">
+        <v>167</v>
+      </c>
+      <c r="AD2">
+        <v>310529</v>
+      </c>
+      <c r="AE2">
+        <v>295960</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>5237.7730000000001</v>
+      </c>
+      <c r="AI2">
+        <v>709278</v>
+      </c>
+      <c r="AJ2">
+        <v>2966678.26</v>
+      </c>
+      <c r="AK2">
+        <v>8189665.6399999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="C3">
+        <v>-115.1391</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1000000</v>
+      </c>
+      <c r="V3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3">
+        <v>43560</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>20</v>
+      </c>
+      <c r="AC3">
+        <v>436</v>
+      </c>
+      <c r="AD3">
+        <v>811598</v>
+      </c>
+      <c r="AE3">
+        <v>773520</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>377033.86699999997</v>
+      </c>
+      <c r="AI3">
+        <v>603514</v>
+      </c>
+      <c r="AJ3">
+        <v>3808211.15</v>
+      </c>
+      <c r="AK3">
+        <v>7348132.7599999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="C4">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1000000</v>
+      </c>
+      <c r="V4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>20</v>
+      </c>
+      <c r="AC4">
+        <v>167</v>
+      </c>
+      <c r="AD4">
+        <v>218079</v>
+      </c>
+      <c r="AE4">
+        <v>207847</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>1744.3409999999999</v>
+      </c>
+      <c r="AI4">
+        <v>793897</v>
+      </c>
+      <c r="AJ4">
+        <v>2047814.64</v>
+      </c>
+      <c r="AK4">
+        <v>9108529.2699999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="C5">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1000000</v>
+      </c>
+      <c r="V5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5">
+        <v>43560</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>20</v>
+      </c>
+      <c r="AC5">
+        <v>436</v>
+      </c>
+      <c r="AD5">
+        <v>569971</v>
+      </c>
+      <c r="AE5">
+        <v>543230</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>217683.63399999996</v>
+      </c>
+      <c r="AI5">
+        <v>674454</v>
+      </c>
+      <c r="AJ5">
+        <v>3037881.95</v>
+      </c>
+      <c r="AK5">
+        <v>8118461.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D657010D-B6E2-4979-8CDC-37005E87A538}">
+  <dimension ref="A1:AK9"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7:AI9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:37" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="C2">
+        <v>-115.1391</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.01</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.4</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>180</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1000000</v>
+      </c>
+      <c r="V2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>20</v>
+      </c>
+      <c r="AC2">
+        <v>167</v>
+      </c>
+      <c r="AD2">
+        <v>310529</v>
+      </c>
+      <c r="AE2">
+        <v>295960</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>5237.7730000000001</v>
+      </c>
+      <c r="AI2">
+        <v>709278</v>
+      </c>
+      <c r="AJ2">
+        <v>2966678.26</v>
+      </c>
+      <c r="AK2">
+        <v>8189665.6399999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>35.171599999999998</v>
+      </c>
+      <c r="C3">
+        <v>-115.1391</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.01</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.4</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>180</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1000000</v>
+      </c>
+      <c r="V3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3">
+        <v>43560</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>20</v>
+      </c>
+      <c r="AC3">
+        <v>436</v>
+      </c>
+      <c r="AD3">
+        <v>811598</v>
+      </c>
+      <c r="AE3">
+        <v>773520</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>377033.86699999997</v>
+      </c>
+      <c r="AI3">
+        <v>603514</v>
+      </c>
+      <c r="AJ3">
+        <v>3808211.15</v>
+      </c>
+      <c r="AK3">
+        <v>7348132.7599999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="C4">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.01</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.4</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>180</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>20</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1000000</v>
+      </c>
+      <c r="V4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>20</v>
+      </c>
+      <c r="AC4">
+        <v>167</v>
+      </c>
+      <c r="AD4">
+        <v>218079</v>
+      </c>
+      <c r="AE4">
+        <v>207847</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>1744.3409999999999</v>
+      </c>
+      <c r="AI4">
+        <v>793897</v>
+      </c>
+      <c r="AJ4">
+        <v>2047814.64</v>
+      </c>
+      <c r="AK4">
+        <v>9108529.2699999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="C5">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.01</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.4</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>180</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>20</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1000000</v>
+      </c>
+      <c r="V5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5">
+        <v>43560</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>20</v>
+      </c>
+      <c r="AC5">
+        <v>436</v>
+      </c>
+      <c r="AD5">
+        <v>569971</v>
+      </c>
+      <c r="AE5">
+        <v>543230</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>217683.63399999996</v>
+      </c>
+      <c r="AI5">
+        <v>674454</v>
+      </c>
+      <c r="AJ5">
+        <v>3037881.95</v>
+      </c>
+      <c r="AK5">
+        <v>8118461.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AD7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AD8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="4">
+        <f>AD2/AD3*100</f>
+        <v>38.261429919738589</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>AH2/AH3*100</f>
+        <v>1.3892049119290393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AD9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE9" s="4">
+        <f>AD4/AD5*100</f>
+        <v>38.261420317875825</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI9" s="4">
+        <f>AH4/AH5*100</f>
+        <v>0.80131931277847013</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{95965d95-ecc0-4720-b759-1f33c42ed7da}" enabled="1" method="Standard" siteId="{a0f29d7e-28cd-4f54-8442-7885aee7c080}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>